--- a/Gantt-Chart_Jalousie.xlsx
+++ b/Gantt-Chart_Jalousie.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\basti\Documents\Github\Projekte\Jalousiensteuerung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\basti\Documents\Github\Projekte\ims.project.shuttercontrol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E00604B-F5BE-44CD-AA06-3717BC353642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206219B7-4703-4C49-9253-CB24F544AD97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0BF3C783-BB58-48F5-BC2A-3F7758AEDAC4}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="21720" windowHeight="12900" xr2:uid="{0BF3C783-BB58-48F5-BC2A-3F7758AEDAC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="47">
   <si>
     <t>Gantt Chart</t>
   </si>
@@ -138,6 +138,45 @@
   </si>
   <si>
     <t>WR9MA2000CCP-F(R6B)</t>
+  </si>
+  <si>
+    <t>Mittwoch</t>
+  </si>
+  <si>
+    <t>Donnerstag Morgen</t>
+  </si>
+  <si>
+    <t>Donnerstag Nachmitag</t>
+  </si>
+  <si>
+    <t>Montag</t>
+  </si>
+  <si>
+    <t>Idle Up/Down</t>
+  </si>
+  <si>
+    <t>WaitTimeout</t>
+  </si>
+  <si>
+    <t>going Up/Down</t>
+  </si>
+  <si>
+    <t>Motortreiber</t>
+  </si>
+  <si>
+    <t>Steuerlogik</t>
+  </si>
+  <si>
+    <t>ReadButtons</t>
+  </si>
+  <si>
+    <t>Button Adresse ändern</t>
+  </si>
+  <si>
+    <t>Jalousie2</t>
+  </si>
+  <si>
+    <t>Zustandsautomat</t>
   </si>
 </sst>
 </file>
@@ -194,7 +233,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -213,6 +252,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -227,7 +272,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -242,7 +287,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -578,19 +626,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C65C5A-61FF-414F-9288-EE6D54F9E9CA}">
-  <dimension ref="A1:U56"/>
+  <dimension ref="A1:U55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="O34" sqref="O34"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.9296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -646,7 +695,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -662,7 +711,7 @@
       </c>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -678,7 +727,7 @@
       </c>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -698,7 +747,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -718,7 +767,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -734,7 +783,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -748,7 +797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -762,7 +811,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -776,7 +825,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -790,7 +839,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -804,7 +853,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -821,7 +870,7 @@
       <c r="P12" s="1"/>
       <c r="R12" s="1"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -836,7 +885,7 @@
       </c>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -853,7 +902,7 @@
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -867,7 +916,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -884,7 +933,7 @@
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -898,7 +947,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -914,7 +963,7 @@
       </c>
       <c r="S18" s="1"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -928,7 +977,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -944,7 +993,7 @@
       </c>
       <c r="S20" s="1"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -958,7 +1007,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -974,7 +1023,7 @@
       </c>
       <c r="S22" s="1"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -988,7 +1037,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -1004,9 +1053,8 @@
         <v>12</v>
       </c>
       <c r="T24" s="1"/>
-      <c r="U24" s="8"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.45">
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -1019,9 +1067,8 @@
       <c r="M25" t="s">
         <v>12</v>
       </c>
-      <c r="U25" s="8"/>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.45">
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -1036,9 +1083,8 @@
         <v>13</v>
       </c>
       <c r="T26" s="1"/>
-      <c r="U26" s="8"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.45">
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -1051,9 +1097,8 @@
       <c r="M27" t="s">
         <v>13</v>
       </c>
-      <c r="U27" s="8"/>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.45">
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -1068,7 +1113,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -1081,120 +1126,305 @@
       <c r="M29" t="s">
         <v>14</v>
       </c>
-      <c r="U29" s="8"/>
-    </row>
-    <row r="35" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E35" s="6"/>
-    </row>
-    <row r="42" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="H42" s="6"/>
-      <c r="J42" s="4"/>
-    </row>
-    <row r="43" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="H43" s="6"/>
-      <c r="J43" s="4"/>
-    </row>
-    <row r="44" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="H44" s="6"/>
-      <c r="J44" s="4"/>
-    </row>
-    <row r="45" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="H45" s="6"/>
-      <c r="J45" s="4"/>
-    </row>
-    <row r="51" spans="12:16" x14ac:dyDescent="0.45">
+    </row>
+    <row r="33" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
+        <v>41</v>
+      </c>
+      <c r="K33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>46</v>
+      </c>
+      <c r="F34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G34" t="s">
+        <v>39</v>
+      </c>
+      <c r="H34" t="s">
+        <v>40</v>
+      </c>
+      <c r="I34" t="s">
+        <v>45</v>
+      </c>
+      <c r="K34" t="s">
+        <v>44</v>
+      </c>
+      <c r="L34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="11"/>
+    </row>
+    <row r="36" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="11"/>
+    </row>
+    <row r="37" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="11"/>
+    </row>
+    <row r="38" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="11"/>
+    </row>
+    <row r="39" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" t="s">
+        <v>36</v>
+      </c>
+      <c r="E39" s="10"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="11"/>
+    </row>
+    <row r="40" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" t="s">
+        <v>36</v>
+      </c>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="11"/>
+    </row>
+    <row r="41" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" t="s">
+        <v>37</v>
+      </c>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="11"/>
+      <c r="K41" s="4"/>
+    </row>
+    <row r="42" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" t="s">
+        <v>37</v>
+      </c>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="11"/>
+      <c r="K42" s="4"/>
+    </row>
+    <row r="43" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" t="s">
+        <v>34</v>
+      </c>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="11"/>
+      <c r="K43" s="4"/>
+    </row>
+    <row r="44" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" t="s">
+        <v>34</v>
+      </c>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="11"/>
+      <c r="K44" s="4"/>
+    </row>
+    <row r="45" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" t="s">
+        <v>35</v>
+      </c>
+      <c r="H45" s="1"/>
+      <c r="I45" s="11"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+    </row>
+    <row r="46" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" t="s">
+        <v>35</v>
+      </c>
+      <c r="I46" s="11"/>
+    </row>
+    <row r="47" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" t="s">
+        <v>36</v>
+      </c>
+      <c r="I47" s="11"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+    </row>
+    <row r="48" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L50" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M50" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50" s="7">
+        <v>6.53</v>
+      </c>
+      <c r="P50" s="6">
+        <f t="shared" ref="P50" si="0">N50*O50</f>
+        <v>6.53</v>
+      </c>
+    </row>
+    <row r="51" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L51" s="3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="M51" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="N51">
-        <v>1</v>
-      </c>
-      <c r="O51" s="7">
-        <v>6.53</v>
+        <v>2</v>
+      </c>
+      <c r="O51">
+        <v>4.3600000000000003</v>
       </c>
       <c r="P51" s="6">
-        <f t="shared" ref="P51" si="0">N51*O51</f>
-        <v>6.53</v>
-      </c>
-    </row>
-    <row r="52" spans="12:16" x14ac:dyDescent="0.45">
+        <f>N51*O51</f>
+        <v>8.7200000000000006</v>
+      </c>
+    </row>
+    <row r="52" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L52" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M52" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N52">
         <v>2</v>
       </c>
       <c r="O52">
-        <v>4.3600000000000003</v>
+        <v>4.22</v>
       </c>
       <c r="P52" s="6">
-        <f>N52*O52</f>
-        <v>8.7200000000000006</v>
-      </c>
-    </row>
-    <row r="53" spans="12:16" x14ac:dyDescent="0.45">
+        <f t="shared" ref="P52:P54" si="1">N52*O52</f>
+        <v>8.44</v>
+      </c>
+    </row>
+    <row r="53" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L53" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M53" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N53">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O53">
-        <v>4.22</v>
+        <v>1.37</v>
       </c>
       <c r="P53" s="6">
-        <f t="shared" ref="P53:P55" si="1">N53*O53</f>
-        <v>8.44</v>
-      </c>
-    </row>
-    <row r="54" spans="12:16" x14ac:dyDescent="0.45">
+        <f t="shared" si="1"/>
+        <v>5.48</v>
+      </c>
+    </row>
+    <row r="54" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L54" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M54" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N54">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>1.37</v>
+        <v>0.84</v>
       </c>
       <c r="P54" s="6">
         <f t="shared" si="1"/>
-        <v>5.48</v>
-      </c>
-    </row>
-    <row r="55" spans="12:16" x14ac:dyDescent="0.45">
-      <c r="L55" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M55" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N55">
-        <v>1</v>
-      </c>
-      <c r="O55">
         <v>0.84</v>
       </c>
+    </row>
+    <row r="55" spans="12:16" x14ac:dyDescent="0.25">
       <c r="P55" s="6">
-        <f t="shared" si="1"/>
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="56" spans="12:16" x14ac:dyDescent="0.45">
-      <c r="P56" s="6">
-        <f>SUM(E33:E40)</f>
+        <f>SUM(E33:E39)</f>
         <v>0</v>
       </c>
     </row>
